--- a/BackTest/2020-01-22 BackTest ADA.xlsx
+++ b/BackTest/2020-01-22 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>399909.1759073701</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>389855.3420073701</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>49.79</v>
@@ -521,9 +521,11 @@
         <v>376307.3102073701</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>49.61</v>
+      </c>
       <c r="J4" t="n">
         <v>49.79</v>
       </c>
@@ -560,7 +562,7 @@
         <v>332457.3102073701</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>49.6</v>
@@ -601,11 +603,9 @@
         <v>340877.1790073701</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>49.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>49.79</v>
       </c>
@@ -642,7 +642,7 @@
         <v>340877.1790073701</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>49.68</v>
@@ -683,7 +683,7 @@
         <v>338911.7245073701</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>49.68</v>
@@ -724,7 +724,7 @@
         <v>334741.7245073701</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>49.67</v>
@@ -765,7 +765,7 @@
         <v>217528.1660073701</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>49.52</v>
@@ -806,7 +806,7 @@
         <v>209528.1660073701</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>49.37</v>
@@ -847,7 +847,7 @@
         <v>212883.3364073701</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>49.2</v>
@@ -888,7 +888,7 @@
         <v>212863.2779073701</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>49.68</v>
@@ -929,7 +929,7 @@
         <v>266576.4571073701</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>49.61</v>
@@ -970,9 +970,11 @@
         <v>256620.5202073701</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>49.78</v>
+      </c>
       <c r="J15" t="n">
         <v>49.79</v>
       </c>
@@ -1009,9 +1011,11 @@
         <v>253180.5846073701</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>49.75</v>
+      </c>
       <c r="J16" t="n">
         <v>49.79</v>
       </c>
@@ -1048,9 +1052,11 @@
         <v>241630.5846073701</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>49.47</v>
+      </c>
       <c r="J17" t="n">
         <v>49.79</v>
       </c>
@@ -1087,9 +1093,11 @@
         <v>299481.9523073701</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>49.26</v>
+      </c>
       <c r="J18" t="n">
         <v>49.79</v>
       </c>
@@ -1126,9 +1134,11 @@
         <v>313528.6752073701</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>49.44</v>
+      </c>
       <c r="J19" t="n">
         <v>49.79</v>
       </c>
@@ -1165,9 +1175,11 @@
         <v>319866.6825073701</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>49.5</v>
+      </c>
       <c r="J20" t="n">
         <v>49.79</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>308760.46620737</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>49.59</v>
@@ -1245,7 +1257,7 @@
         <v>308760.46620737</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>49.5</v>
@@ -1286,7 +1298,7 @@
         <v>309476.7128073701</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>49.5</v>
@@ -1327,7 +1339,7 @@
         <v>344396.4994073701</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>49.58</v>
@@ -1368,7 +1380,7 @@
         <v>333984.6752073701</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>49.59</v>
@@ -1409,7 +1421,7 @@
         <v>333984.6752073701</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>49.58</v>
@@ -1450,7 +1462,7 @@
         <v>333984.6752073701</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>49.58</v>
@@ -1491,7 +1503,7 @@
         <v>332589.67830737</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>49.58</v>
@@ -1532,7 +1544,7 @@
         <v>332609.8721684301</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>49.51</v>
@@ -1573,7 +1585,7 @@
         <v>318610.8301684301</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>49.52</v>
@@ -1614,7 +1626,7 @@
         <v>323163.7975684301</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>49.41</v>
@@ -1694,7 +1706,7 @@
         <v>325547.07726843</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>49.52</v>
@@ -1735,9 +1747,11 @@
         <v>325922.17726843</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>49.74</v>
+      </c>
       <c r="J34" t="n">
         <v>49.79</v>
       </c>
@@ -1774,9 +1788,11 @@
         <v>325922.17726843</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>49.8</v>
+      </c>
       <c r="J35" t="n">
         <v>49.79</v>
       </c>
@@ -1813,9 +1829,11 @@
         <v>325932.17726843</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>49.8</v>
+      </c>
       <c r="J36" t="n">
         <v>49.79</v>
       </c>
@@ -1852,9 +1870,11 @@
         <v>325932.17726843</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50.02</v>
+      </c>
       <c r="J37" t="n">
         <v>49.79</v>
       </c>
@@ -2125,11 +2145,9 @@
         <v>258267.98216843</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>49.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>49.79</v>
       </c>
@@ -2166,7 +2184,7 @@
         <v>488267.98216843</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>49.77</v>
@@ -2207,11 +2225,9 @@
         <v>505067.26756843</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>49.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>49.79</v>
       </c>
@@ -2248,11 +2264,9 @@
         <v>486179.31186843</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>49.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>49.79</v>
       </c>
@@ -5292,9 +5306,11 @@
         <v>-430097.30913157</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>50</v>
+      </c>
       <c r="J125" t="n">
         <v>49.79</v>
       </c>
@@ -5331,9 +5347,11 @@
         <v>-407289.9885191901</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>50</v>
+      </c>
       <c r="J126" t="n">
         <v>49.79</v>
       </c>
@@ -5409,9 +5427,11 @@
         <v>-459096.11061919</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>49.8</v>
+      </c>
       <c r="J128" t="n">
         <v>49.79</v>
       </c>
@@ -5448,9 +5468,11 @@
         <v>-459096.11061919</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>49.7</v>
+      </c>
       <c r="J129" t="n">
         <v>49.79</v>
       </c>
@@ -5487,9 +5509,11 @@
         <v>-448596.11061919</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>49.7</v>
+      </c>
       <c r="J130" t="n">
         <v>49.79</v>
       </c>
@@ -5526,9 +5550,11 @@
         <v>-460946.12681919</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>49.88</v>
+      </c>
       <c r="J131" t="n">
         <v>49.79</v>
       </c>
@@ -5565,9 +5591,11 @@
         <v>-467526.12681919</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>49.75</v>
+      </c>
       <c r="J132" t="n">
         <v>49.79</v>
       </c>
@@ -5604,7 +5632,7 @@
         <v>-488538.1246191901</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>49.6</v>
@@ -5645,7 +5673,7 @@
         <v>-463430.4933066301</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>49.51</v>
@@ -5686,7 +5714,7 @@
         <v>-463430.4933066301</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>49.75</v>
@@ -5727,9 +5755,11 @@
         <v>-463846.8933066301</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>49.75</v>
+      </c>
       <c r="J136" t="n">
         <v>49.79</v>
       </c>
@@ -5766,9 +5796,11 @@
         <v>-463846.8933066301</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>49.55</v>
+      </c>
       <c r="J137" t="n">
         <v>49.79</v>
       </c>
@@ -5805,9 +5837,11 @@
         <v>-463846.8933066301</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>49.55</v>
+      </c>
       <c r="J138" t="n">
         <v>49.79</v>
       </c>
@@ -5844,9 +5878,11 @@
         <v>-463346.8933066301</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>49.55</v>
+      </c>
       <c r="J139" t="n">
         <v>49.79</v>
       </c>
@@ -5883,9 +5919,11 @@
         <v>-453913.7448066301</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>49.56</v>
+      </c>
       <c r="J140" t="n">
         <v>49.79</v>
       </c>
@@ -5922,7 +5960,7 @@
         <v>-453913.7448066301</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>49.75</v>
@@ -5963,9 +6001,11 @@
         <v>-353749.2877066301</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>49.75</v>
+      </c>
       <c r="J142" t="n">
         <v>49.79</v>
       </c>
@@ -6002,9 +6042,11 @@
         <v>-338811.5860066301</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>49.92</v>
+      </c>
       <c r="J143" t="n">
         <v>49.79</v>
       </c>
@@ -6041,9 +6083,11 @@
         <v>-338811.5860066301</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>50.07</v>
+      </c>
       <c r="J144" t="n">
         <v>49.79</v>
       </c>
@@ -6080,9 +6124,11 @@
         <v>-395525.4529066301</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>50.07</v>
+      </c>
       <c r="J145" t="n">
         <v>49.79</v>
       </c>
@@ -6119,9 +6165,11 @@
         <v>-452647.4788066301</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>50.06</v>
+      </c>
       <c r="J146" t="n">
         <v>49.79</v>
       </c>
@@ -6197,9 +6245,11 @@
         <v>-452657.4809066301</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>50.05</v>
+      </c>
       <c r="J148" t="n">
         <v>49.79</v>
       </c>
@@ -6236,9 +6286,11 @@
         <v>-280127.4724066301</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>49.99</v>
+      </c>
       <c r="J149" t="n">
         <v>49.79</v>
       </c>
@@ -6431,9 +6483,11 @@
         <v>-249226.9411066301</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>50.17</v>
+      </c>
       <c r="J154" t="n">
         <v>49.79</v>
       </c>
@@ -7484,9 +7538,11 @@
         <v>-231272.7884066301</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>50.17</v>
+      </c>
       <c r="J181" t="n">
         <v>49.79</v>
       </c>
@@ -7523,9 +7579,11 @@
         <v>-231272.7884066301</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>50.17</v>
+      </c>
       <c r="J182" t="n">
         <v>49.79</v>
       </c>
@@ -7562,9 +7620,11 @@
         <v>-231272.7884066301</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>50.17</v>
+      </c>
       <c r="J183" t="n">
         <v>49.79</v>
       </c>
@@ -7601,9 +7661,11 @@
         <v>-231272.7884066301</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>50.17</v>
+      </c>
       <c r="J184" t="n">
         <v>49.79</v>
       </c>
@@ -12827,7 +12889,7 @@
         <v>920233.1053023804</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
@@ -12983,7 +13045,7 @@
         <v>889423.6422023805</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
@@ -13139,7 +13201,7 @@
         <v>966489.3603023804</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
@@ -13763,7 +13825,7 @@
         <v>1549954.56230238</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
@@ -13802,7 +13864,7 @@
         <v>1568673.81730238</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
@@ -13880,7 +13942,7 @@
         <v>1545515.05550238</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
@@ -13919,7 +13981,7 @@
         <v>1541720.44120238</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
@@ -13958,7 +14020,7 @@
         <v>1591022.41940238</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
@@ -14075,7 +14137,7 @@
         <v>1587913.76420238</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
@@ -14114,7 +14176,7 @@
         <v>1660116.66883944</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
@@ -14153,7 +14215,7 @@
         <v>1519014.22613944</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
@@ -14192,7 +14254,7 @@
         <v>1519014.22613944</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
@@ -14231,7 +14293,7 @@
         <v>1518904.22613944</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
@@ -14270,7 +14332,7 @@
         <v>1518904.22613944</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
@@ -14426,7 +14488,7 @@
         <v>1508815.80603944</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
@@ -14465,7 +14527,7 @@
         <v>1508815.80603944</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
@@ -14543,7 +14605,7 @@
         <v>1589242.77113944</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
@@ -14582,7 +14644,7 @@
         <v>1590240.27113944</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
@@ -14621,7 +14683,7 @@
         <v>1666166.29363944</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
@@ -14699,7 +14761,7 @@
         <v>1657447.65893944</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
@@ -14738,7 +14800,7 @@
         <v>1622501.22273944</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
@@ -14816,7 +14878,7 @@
         <v>1625844.20803944</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
@@ -14855,7 +14917,7 @@
         <v>1624544.20803944</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
@@ -14894,7 +14956,7 @@
         <v>1624864.31303944</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
@@ -14933,7 +14995,7 @@
         <v>1623264.31303944</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
@@ -14972,7 +15034,7 @@
         <v>1620808.86553944</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
@@ -15011,7 +15073,7 @@
         <v>1606426.27043944</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
@@ -15050,7 +15112,7 @@
         <v>1594899.64413944</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
@@ -15089,7 +15151,7 @@
         <v>1594899.64413944</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
@@ -15128,7 +15190,7 @@
         <v>1594899.64413944</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
@@ -15167,7 +15229,7 @@
         <v>1606247.40983944</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
@@ -15206,7 +15268,7 @@
         <v>1631068.71153944</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
@@ -15245,7 +15307,7 @@
         <v>1635124.05743944</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
@@ -15284,7 +15346,7 @@
         <v>1635124.05743944</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
@@ -15323,7 +15385,7 @@
         <v>1570297.59393944</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
@@ -15362,7 +15424,7 @@
         <v>1572489.06483944</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
@@ -15401,7 +15463,7 @@
         <v>1571057.45373944</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
@@ -15440,7 +15502,7 @@
         <v>1571125.07383944</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
@@ -15479,7 +15541,7 @@
         <v>1571125.07383944</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
@@ -15518,7 +15580,7 @@
         <v>1570305.43363944</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
@@ -15557,7 +15619,7 @@
         <v>1622417.33523944</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
@@ -15596,7 +15658,7 @@
         <v>1602991.58963944</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
@@ -15791,7 +15853,7 @@
         <v>1549207.77623944</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
@@ -15830,7 +15892,7 @@
         <v>1499207.77623944</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
@@ -15869,7 +15931,7 @@
         <v>1453507.45903944</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
@@ -15908,7 +15970,7 @@
         <v>1503775.55323944</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
@@ -15947,7 +16009,7 @@
         <v>1472971.86393944</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
@@ -16103,7 +16165,7 @@
         <v>1452641.07813944</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
@@ -16181,7 +16243,7 @@
         <v>1445547.67103944</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
@@ -18131,7 +18193,7 @@
         <v>1932564.86292678</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
@@ -18139,11 +18201,11 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L454" t="n">
-        <v>1.03757883109058</v>
+        <v>1</v>
       </c>
       <c r="M454" t="inlineStr"/>
     </row>
@@ -18170,11 +18232,17 @@
         <v>1932746.64562678</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18206,8 +18274,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18239,8 +18313,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18272,8 +18352,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18305,8 +18391,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18338,8 +18430,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18371,8 +18469,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18404,8 +18508,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18437,8 +18547,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18470,8 +18586,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18503,8 +18625,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18536,8 +18664,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18569,8 +18703,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18602,8 +18742,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18635,8 +18781,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18668,8 +18820,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18701,8 +18859,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18734,8 +18898,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18767,8 +18937,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18800,8 +18976,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18833,8 +19015,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18863,11 +19051,17 @@
         <v>1509221.79721025</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18899,8 +19093,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18932,8 +19132,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18965,8 +19171,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18998,8 +19210,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19031,8 +19249,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19064,8 +19288,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19097,8 +19327,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19130,8 +19366,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19163,8 +19405,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19196,8 +19444,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19229,8 +19483,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19262,8 +19522,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19295,8 +19561,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19328,8 +19600,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19361,8 +19639,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19394,8 +19678,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19427,8 +19717,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19460,8 +19756,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19493,8 +19795,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19526,8 +19834,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19559,8 +19873,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19592,8 +19912,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19625,8 +19951,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19658,8 +19990,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19691,8 +20029,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19724,8 +20068,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19757,8 +20107,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19790,8 +20146,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19823,8 +20185,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19856,8 +20224,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19889,8 +20263,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19922,8 +20302,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19955,8 +20341,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19988,8 +20380,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20021,8 +20419,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20054,8 +20458,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20087,8 +20497,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20120,8 +20536,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20153,8 +20575,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20186,8 +20614,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20219,8 +20653,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20249,11 +20689,17 @@
         <v>1990615.96110672</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20282,11 +20728,17 @@
         <v>1918309.61820672</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20315,11 +20767,17 @@
         <v>2079583.42275766</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20348,11 +20806,17 @@
         <v>1767947.61285766</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20381,15 +20845,23 @@
         <v>1492785.25385766</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L522" t="n">
-        <v>1</v>
-      </c>
-      <c r="M522" t="inlineStr"/>
+        <v>1.054851375778269</v>
+      </c>
+      <c r="M522" t="n">
+        <v>1.00383064516129</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -20414,7 +20886,7 @@
         <v>1366693.96675766</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20447,7 +20919,7 @@
         <v>1419050.55905766</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20480,7 +20952,7 @@
         <v>1426193.51815766</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20513,7 +20985,7 @@
         <v>1365125.18015766</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20546,7 +21018,7 @@
         <v>1496056.85994354</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20579,7 +21051,7 @@
         <v>1522551.16994354</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20612,7 +21084,7 @@
         <v>1575908.28894354</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20645,7 +21117,7 @@
         <v>1662643.20802519</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20678,7 +21150,7 @@
         <v>1626434.23322519</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20711,7 +21183,7 @@
         <v>1771919.99902519</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20744,7 +21216,7 @@
         <v>1725382.12452519</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20777,7 +21249,7 @@
         <v>1791757.44150257</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20810,7 +21282,7 @@
         <v>1773395.96610257</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20843,7 +21315,7 @@
         <v>1777755.75000257</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20876,7 +21348,7 @@
         <v>1921960.39720257</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20909,7 +21381,7 @@
         <v>1961300.19477914</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20942,7 +21414,7 @@
         <v>2019155.71120257</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20975,7 +21447,7 @@
         <v>2034053.47060257</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -21008,7 +21480,7 @@
         <v>2034053.47060257</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -21041,7 +21513,7 @@
         <v>2030724.22850257</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21074,7 +21546,7 @@
         <v>1744620.97730257</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21107,7 +21579,7 @@
         <v>1746648.12960257</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21140,7 +21612,7 @@
         <v>1921185.12260257</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21173,7 +21645,7 @@
         <v>1879361.07840257</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -21206,7 +21678,7 @@
         <v>1854271.62670257</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21239,7 +21711,7 @@
         <v>1849446.83464982</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21272,7 +21744,7 @@
         <v>1403772.56854982</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21305,7 +21777,7 @@
         <v>1415794.32494982</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21338,7 +21810,7 @@
         <v>1397143.80834982</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21371,7 +21843,7 @@
         <v>1447802.38114982</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21404,7 +21876,7 @@
         <v>1442198.41544982</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21437,7 +21909,7 @@
         <v>1444739.17777575</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21470,7 +21942,7 @@
         <v>1444739.17777575</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21503,7 +21975,7 @@
         <v>1444739.17777575</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21536,7 +22008,7 @@
         <v>1444739.17777575</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21569,7 +22041,7 @@
         <v>1444793.55807575</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21602,7 +22074,7 @@
         <v>1444793.55807575</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21635,7 +22107,7 @@
         <v>1402013.46467575</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21668,7 +22140,7 @@
         <v>1432246.32357575</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21701,7 +22173,7 @@
         <v>1213457.52597575</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21734,7 +22206,7 @@
         <v>1213457.52597575</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21767,7 +22239,7 @@
         <v>1213457.52597575</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21800,7 +22272,7 @@
         <v>1227362.95827575</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21833,7 +22305,7 @@
         <v>1204345.79580899</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21866,7 +22338,7 @@
         <v>1185234.16050899</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21899,7 +22371,7 @@
         <v>1159073.74060899</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21932,7 +22404,7 @@
         <v>1159073.74060899</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21965,7 +22437,7 @@
         <v>1159073.74060899</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21998,7 +22470,7 @@
         <v>1158913.19260899</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22031,7 +22503,7 @@
         <v>1158913.19260899</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22064,7 +22536,7 @@
         <v>1167388.30790899</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22097,7 +22569,7 @@
         <v>1179024.45230899</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22130,7 +22602,7 @@
         <v>1179024.45230899</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22163,7 +22635,7 @@
         <v>1179024.45230899</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22196,7 +22668,7 @@
         <v>1179034.45230899</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22229,7 +22701,7 @@
         <v>1131270.33370899</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22262,7 +22734,7 @@
         <v>1203909.14990899</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22295,7 +22767,7 @@
         <v>1232983.29690899</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22328,7 +22800,7 @@
         <v>1232983.29690899</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22361,7 +22833,7 @@
         <v>1227907.20280899</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22394,7 +22866,7 @@
         <v>1227907.20280899</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22427,7 +22899,7 @@
         <v>1250375.16430899</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22460,7 +22932,7 @@
         <v>1250375.16430899</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22493,7 +22965,7 @@
         <v>1304226.54060899</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22526,7 +22998,7 @@
         <v>1304226.54060899</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22559,7 +23031,7 @@
         <v>1304360.46300899</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22592,7 +23064,7 @@
         <v>1304360.46300899</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22625,7 +23097,7 @@
         <v>1304360.46300899</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22658,7 +23130,7 @@
         <v>1305079.14930899</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22691,7 +23163,7 @@
         <v>1305079.14930899</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22724,7 +23196,7 @@
         <v>1303118.14930899</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22823,7 +23295,7 @@
         <v>1252392.11330899</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22856,7 +23328,7 @@
         <v>1172302.11330899</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22889,7 +23361,7 @@
         <v>1172302.11330899</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22922,7 +23394,7 @@
         <v>1292394.29610899</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22988,7 +23460,7 @@
         <v>1314481.40650899</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23021,7 +23493,7 @@
         <v>1315406.70260899</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23054,7 +23526,7 @@
         <v>1315419.34040899</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23087,7 +23559,7 @@
         <v>1309667.55800899</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23120,7 +23592,7 @@
         <v>1287694.00310899</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23153,7 +23625,7 @@
         <v>1002493.30380899</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23186,7 +23658,7 @@
         <v>1002493.30380899</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23252,7 +23724,7 @@
         <v>1013402.56340899</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23285,7 +23757,7 @@
         <v>1041525.13120899</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23384,7 +23856,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23417,7 +23889,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23450,7 +23922,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23483,7 +23955,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23516,7 +23988,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23549,7 +24021,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23582,7 +24054,7 @@
         <v>935939.9868089898</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23615,7 +24087,7 @@
         <v>910656.8230089898</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23648,7 +24120,7 @@
         <v>942142.2474089898</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23714,7 +24186,7 @@
         <v>942142.2474089898</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23747,7 +24219,7 @@
         <v>942142.2474089898</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23780,7 +24252,7 @@
         <v>945181.2474089898</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23813,7 +24285,7 @@
         <v>945181.2474089898</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23846,7 +24318,7 @@
         <v>943825.7429089898</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23879,7 +24351,7 @@
         <v>939221.1712089898</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23912,7 +24384,7 @@
         <v>862037.9967089898</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23945,7 +24417,7 @@
         <v>862076.0176089898</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23978,7 +24450,7 @@
         <v>862076.0176089898</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24011,7 +24483,7 @@
         <v>848976.0048089898</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24044,7 +24516,7 @@
         <v>856369.7584089899</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24077,7 +24549,7 @@
         <v>856369.7584089899</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24242,7 +24714,7 @@
         <v>746356.4362901699</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -25166,7 +25638,7 @@
         <v>1049346.16153162</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25331,7 +25803,7 @@
         <v>600066.5321675199</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25364,7 +25836,7 @@
         <v>601076.5321675199</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25430,7 +25902,7 @@
         <v>615619.8396675199</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25463,7 +25935,7 @@
         <v>609671.0671675199</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25496,7 +25968,7 @@
         <v>658729.1377675199</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25661,7 +26133,7 @@
         <v>609095.2400675199</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25694,7 +26166,7 @@
         <v>609095.2400675199</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25760,7 +26232,7 @@
         <v>591996.4104675199</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25771,6 +26243,6 @@
       <c r="M685" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ADA.xlsx
+++ b/BackTest/2020-01-22 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>389855.3420073701</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="J3" t="n">
-        <v>49.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -527,13 +523,9 @@
         <v>49.61</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>49.61</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -568,7 +560,7 @@
         <v>49.6</v>
       </c>
       <c r="J5" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -603,11 +595,13 @@
         <v>340877.1790073701</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>49.42</v>
+      </c>
       <c r="J6" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -648,7 +642,7 @@
         <v>49.68</v>
       </c>
       <c r="J7" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -689,7 +683,7 @@
         <v>49.68</v>
       </c>
       <c r="J8" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -730,7 +724,7 @@
         <v>49.67</v>
       </c>
       <c r="J9" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -771,7 +765,7 @@
         <v>49.52</v>
       </c>
       <c r="J10" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -812,7 +806,7 @@
         <v>49.37</v>
       </c>
       <c r="J11" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -853,7 +847,7 @@
         <v>49.2</v>
       </c>
       <c r="J12" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -888,13 +882,11 @@
         <v>212863.2779073701</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>49.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -929,13 +921,11 @@
         <v>266576.4571073701</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>49.61</v>
-      </c>
-      <c r="J14" t="n">
-        <v>49.79</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -970,13 +960,11 @@
         <v>256620.5202073701</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>49.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1011,13 +999,11 @@
         <v>253180.5846073701</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>49.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1052,13 +1038,11 @@
         <v>241630.5846073701</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>49.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1093,13 +1077,11 @@
         <v>299481.9523073701</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>49.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1134,13 +1116,11 @@
         <v>313528.6752073701</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>49.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1175,13 +1155,11 @@
         <v>319866.6825073701</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>49.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1216,13 +1194,11 @@
         <v>308760.46620737</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>49.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1257,13 +1233,11 @@
         <v>308760.46620737</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>49.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1304,7 +1278,7 @@
         <v>49.5</v>
       </c>
       <c r="J23" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1345,7 +1319,7 @@
         <v>49.58</v>
       </c>
       <c r="J24" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1386,7 +1360,7 @@
         <v>49.59</v>
       </c>
       <c r="J25" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1427,7 +1401,7 @@
         <v>49.58</v>
       </c>
       <c r="J26" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1468,7 +1442,7 @@
         <v>49.58</v>
       </c>
       <c r="J27" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1503,13 +1477,11 @@
         <v>332589.67830737</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>49.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1544,13 +1516,11 @@
         <v>332609.8721684301</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>49.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1591,7 +1561,7 @@
         <v>49.52</v>
       </c>
       <c r="J30" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1632,7 +1602,7 @@
         <v>49.41</v>
       </c>
       <c r="J31" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1667,11 +1637,13 @@
         <v>323540.9185684301</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>49.48</v>
+      </c>
       <c r="J32" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1712,7 +1684,7 @@
         <v>49.52</v>
       </c>
       <c r="J33" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1747,13 +1719,11 @@
         <v>325922.17726843</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>49.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1788,13 +1758,11 @@
         <v>325922.17726843</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>49.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1829,13 +1797,11 @@
         <v>325932.17726843</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>49.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1870,13 +1836,11 @@
         <v>325932.17726843</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>50.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1915,7 +1879,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1954,7 +1918,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1993,7 +1957,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2032,7 +1996,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2071,7 +2035,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2110,7 +2074,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2149,7 +2113,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2184,13 +2148,11 @@
         <v>488267.98216843</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>49.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2229,7 +2191,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2268,7 +2230,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2307,7 +2269,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2346,7 +2308,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2385,7 +2347,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2424,7 +2386,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2463,7 +2425,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2502,7 +2464,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2541,7 +2503,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2580,7 +2542,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2619,7 +2581,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2658,7 +2620,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2697,7 +2659,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2736,7 +2698,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2775,7 +2737,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2814,7 +2776,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2853,7 +2815,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2892,7 +2854,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2931,7 +2893,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2970,7 +2932,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3009,7 +2971,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3048,7 +3010,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3087,7 +3049,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3126,7 +3088,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3165,7 +3127,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3204,7 +3166,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3243,7 +3205,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3282,7 +3244,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3321,7 +3283,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3360,7 +3322,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3399,7 +3361,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3438,7 +3400,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3477,7 +3439,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3516,7 +3478,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3555,7 +3517,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3594,7 +3556,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3633,7 +3595,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3672,7 +3634,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3711,7 +3673,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3750,7 +3712,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3789,7 +3751,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3828,7 +3790,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3867,7 +3829,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3906,7 +3868,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3945,7 +3907,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3984,7 +3946,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4023,7 +3985,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4062,7 +4024,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4101,7 +4063,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4140,7 +4102,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4179,7 +4141,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4218,7 +4180,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4257,7 +4219,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4296,7 +4258,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4335,7 +4297,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4374,7 +4336,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4413,7 +4375,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4452,7 +4414,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4491,7 +4453,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4530,7 +4492,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4569,7 +4531,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4604,11 +4566,13 @@
         <v>73338.71596842984</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>49.79</v>
+      </c>
       <c r="J107" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4643,11 +4607,13 @@
         <v>73338.71596842984</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>49.8</v>
+      </c>
       <c r="J108" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4682,11 +4648,13 @@
         <v>95516.09546842983</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>49.8</v>
+      </c>
       <c r="J109" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4721,11 +4689,13 @@
         <v>79340.17056842984</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>49.82</v>
+      </c>
       <c r="J110" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4760,11 +4730,13 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>49.8</v>
+      </c>
       <c r="J111" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4799,11 +4771,13 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>49.71</v>
+      </c>
       <c r="J112" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4838,11 +4812,13 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>49.71</v>
+      </c>
       <c r="J113" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4877,11 +4853,13 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>49.71</v>
+      </c>
       <c r="J114" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4916,11 +4894,13 @@
         <v>16432.15336842983</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>49.71</v>
+      </c>
       <c r="J115" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4955,11 +4935,13 @@
         <v>17775.57356842983</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>49.55</v>
+      </c>
       <c r="J116" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4994,11 +4976,13 @@
         <v>-476406.8878315701</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>49.95</v>
+      </c>
       <c r="J117" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5037,7 +5021,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5072,11 +5056,13 @@
         <v>-385206.5116315701</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>49.81</v>
+      </c>
       <c r="J119" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5111,11 +5097,13 @@
         <v>-409134.68513157</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>49.97</v>
+      </c>
       <c r="J120" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5154,7 +5142,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5193,7 +5181,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5232,7 +5220,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5271,7 +5259,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5306,13 +5294,11 @@
         <v>-430097.30913157</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5347,13 +5333,11 @@
         <v>-407289.9885191901</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5392,7 +5376,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5427,13 +5411,11 @@
         <v>-459096.11061919</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>49.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5468,13 +5450,11 @@
         <v>-459096.11061919</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>49.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5509,13 +5489,11 @@
         <v>-448596.11061919</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>49.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5550,13 +5528,11 @@
         <v>-460946.12681919</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>49.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5597,7 +5573,7 @@
         <v>49.75</v>
       </c>
       <c r="J132" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5638,7 +5614,7 @@
         <v>49.6</v>
       </c>
       <c r="J133" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5679,7 +5655,7 @@
         <v>49.51</v>
       </c>
       <c r="J134" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5720,7 +5696,7 @@
         <v>49.75</v>
       </c>
       <c r="J135" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5761,7 +5737,7 @@
         <v>49.75</v>
       </c>
       <c r="J136" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5802,7 +5778,7 @@
         <v>49.55</v>
       </c>
       <c r="J137" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5843,7 +5819,7 @@
         <v>49.55</v>
       </c>
       <c r="J138" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5884,7 +5860,7 @@
         <v>49.55</v>
       </c>
       <c r="J139" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5925,7 +5901,7 @@
         <v>49.56</v>
       </c>
       <c r="J140" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5966,7 +5942,7 @@
         <v>49.75</v>
       </c>
       <c r="J141" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6007,7 +5983,7 @@
         <v>49.75</v>
       </c>
       <c r="J142" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6048,7 +6024,7 @@
         <v>49.92</v>
       </c>
       <c r="J143" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6083,13 +6059,11 @@
         <v>-338811.5860066301</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>50.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6124,13 +6098,11 @@
         <v>-395525.4529066301</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>50.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6165,13 +6137,11 @@
         <v>-452647.4788066301</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>50.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6210,7 +6180,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6245,13 +6215,11 @@
         <v>-452657.4809066301</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>50.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6286,13 +6254,11 @@
         <v>-280127.4724066301</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>49.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6331,7 +6297,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6370,7 +6336,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6409,7 +6375,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6448,7 +6414,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6483,13 +6449,11 @@
         <v>-249226.9411066301</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>50.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6528,7 +6492,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6567,7 +6531,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6606,7 +6570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6645,7 +6609,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6684,7 +6648,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6723,7 +6687,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6762,7 +6726,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6801,7 +6765,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6840,7 +6804,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6879,7 +6843,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6918,7 +6882,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6953,11 +6917,13 @@
         <v>-253205.2424066301</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>50</v>
+      </c>
       <c r="J166" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6992,11 +6958,13 @@
         <v>-252454.6726066301</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>49.9</v>
+      </c>
       <c r="J167" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7031,11 +6999,13 @@
         <v>-252454.6726066301</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>50</v>
+      </c>
       <c r="J168" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7070,11 +7040,13 @@
         <v>-252454.6726066301</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>50</v>
+      </c>
       <c r="J169" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7109,11 +7081,13 @@
         <v>-241530.1713066301</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>50</v>
+      </c>
       <c r="J170" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7148,11 +7122,13 @@
         <v>-245673.2110066301</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>50.22</v>
+      </c>
       <c r="J171" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7187,11 +7163,13 @@
         <v>-245643.9179066301</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>50.12</v>
+      </c>
       <c r="J172" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7226,11 +7204,13 @@
         <v>-245643.9179066301</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>50.24</v>
+      </c>
       <c r="J173" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7265,11 +7245,13 @@
         <v>-245643.9179066301</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>50.24</v>
+      </c>
       <c r="J174" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7304,11 +7286,13 @@
         <v>-239311.5416066301</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>50.24</v>
+      </c>
       <c r="J175" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7343,11 +7327,13 @@
         <v>-230419.9556066301</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>50.26</v>
+      </c>
       <c r="J176" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7382,11 +7368,13 @@
         <v>-230419.9556066301</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>50.27</v>
+      </c>
       <c r="J177" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7421,11 +7409,13 @@
         <v>-288648.3563066301</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>50.27</v>
+      </c>
       <c r="J178" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7460,11 +7450,13 @@
         <v>-231272.7884066301</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>50.13</v>
+      </c>
       <c r="J179" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7499,11 +7491,13 @@
         <v>-231272.7884066301</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>50.17</v>
+      </c>
       <c r="J180" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7544,7 +7538,7 @@
         <v>50.17</v>
       </c>
       <c r="J181" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7585,7 +7579,7 @@
         <v>50.17</v>
       </c>
       <c r="J182" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7626,7 +7620,7 @@
         <v>50.17</v>
       </c>
       <c r="J183" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7667,7 +7661,7 @@
         <v>50.17</v>
       </c>
       <c r="J184" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7702,11 +7696,13 @@
         <v>-489020.7165066301</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>50.17</v>
+      </c>
       <c r="J185" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7741,11 +7737,13 @@
         <v>-469217.1383066301</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>50.16</v>
+      </c>
       <c r="J186" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7780,11 +7778,13 @@
         <v>-494573.6584066301</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>50.37</v>
+      </c>
       <c r="J187" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7819,11 +7819,13 @@
         <v>-494563.6584066301</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>50.16</v>
+      </c>
       <c r="J188" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7858,11 +7860,13 @@
         <v>-494563.6584066301</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>50.35</v>
+      </c>
       <c r="J189" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7897,11 +7901,13 @@
         <v>-495135.0613066301</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>50.35</v>
+      </c>
       <c r="J190" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7936,11 +7942,13 @@
         <v>-495135.0613066301</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>50.32</v>
+      </c>
       <c r="J191" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7975,11 +7983,13 @@
         <v>-493563.4340066301</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>50.32</v>
+      </c>
       <c r="J192" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -8014,11 +8024,13 @@
         <v>-493629.3369066301</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>50.35</v>
+      </c>
       <c r="J193" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -8053,11 +8065,13 @@
         <v>-482732.9071066301</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>50.34</v>
+      </c>
       <c r="J194" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8092,11 +8106,13 @@
         <v>-391787.5878066301</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>50.4</v>
+      </c>
       <c r="J195" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8131,11 +8147,13 @@
         <v>-347824.3088066301</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>50.7</v>
+      </c>
       <c r="J196" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8174,7 +8192,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8213,7 +8231,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8252,7 +8270,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8291,7 +8309,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8330,7 +8348,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8369,7 +8387,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8408,7 +8426,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8447,7 +8465,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8486,7 +8504,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8525,7 +8543,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8560,19 +8578,19 @@
         <v>256406.1836933699</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>49.79</v>
+        <v>49.61</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1</v>
+        <v>1.023623261439226</v>
       </c>
       <c r="M207" t="inlineStr"/>
     </row>
@@ -8599,17 +8617,11 @@
         <v>255104.4994933699</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8641,14 +8653,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8680,14 +8686,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8719,14 +8719,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8758,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8797,14 +8785,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8836,14 +8818,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8875,14 +8851,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8911,17 +8881,11 @@
         <v>348277.12190191</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8953,14 +8917,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8989,17 +8947,11 @@
         <v>317753.67730191</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9028,17 +8980,11 @@
         <v>272507.01430191</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9067,17 +9013,11 @@
         <v>280021.03640191</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9106,17 +9046,11 @@
         <v>279981.03640191</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9145,17 +9079,11 @@
         <v>324200.20150191</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9184,17 +9112,11 @@
         <v>399557.74439337</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9223,17 +9145,11 @@
         <v>400374.68619337</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9262,17 +9178,11 @@
         <v>396413.39318483</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9301,17 +9211,11 @@
         <v>397383.6047848299</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9340,17 +9244,11 @@
         <v>397383.6047848299</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9379,17 +9277,11 @@
         <v>405368.0775762899</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9418,17 +9310,11 @@
         <v>390788.5882762899</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9457,17 +9343,11 @@
         <v>390788.5882762899</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9496,17 +9376,11 @@
         <v>390800.5882762899</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9535,17 +9409,11 @@
         <v>383198.0487762899</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9574,17 +9442,11 @@
         <v>432064.4426979699</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9613,17 +9475,11 @@
         <v>420383.2974979699</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9652,17 +9508,11 @@
         <v>442744.5376979699</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9691,17 +9541,11 @@
         <v>677499.8810979698</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9730,17 +9574,11 @@
         <v>677499.8810979698</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9769,17 +9607,11 @@
         <v>853236.4253195998</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9808,17 +9640,11 @@
         <v>853236.4253195998</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9847,17 +9673,11 @@
         <v>904695.5848195998</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9886,17 +9706,11 @@
         <v>904695.5848195998</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9925,17 +9739,11 @@
         <v>893337.8290970498</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9964,17 +9772,11 @@
         <v>1001380.32249705</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10003,17 +9805,11 @@
         <v>1115376.84959705</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10042,17 +9838,11 @@
         <v>1131451.84969705</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10081,17 +9871,11 @@
         <v>1060689.72179705</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10120,17 +9904,11 @@
         <v>1068022.87369705</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10159,17 +9937,11 @@
         <v>1107439.89539705</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10198,17 +9970,11 @@
         <v>1234827.01385276</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10237,17 +10003,11 @@
         <v>1234827.01385276</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10276,17 +10036,11 @@
         <v>1261025.30139705</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10315,17 +10069,11 @@
         <v>1269441.01039705</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10354,17 +10102,11 @@
         <v>1449699.09531187</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10396,14 +10138,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10435,14 +10171,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10474,14 +10204,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10513,14 +10237,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10552,14 +10270,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10591,14 +10303,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10630,14 +10336,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10669,14 +10369,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10708,14 +10402,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10747,14 +10435,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10786,14 +10468,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10825,14 +10501,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10864,14 +10534,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10903,14 +10567,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10942,14 +10600,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10981,14 +10633,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11020,14 +10666,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11059,14 +10699,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11098,14 +10732,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11137,14 +10765,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11176,14 +10798,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11215,14 +10831,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11254,14 +10864,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11293,14 +10897,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11332,14 +10930,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11371,14 +10963,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11410,14 +10996,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11449,14 +11029,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11488,14 +11062,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11527,14 +11095,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11566,14 +11128,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11605,14 +11161,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11644,14 +11194,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11683,14 +11227,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11722,14 +11260,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11761,14 +11293,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11800,14 +11326,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11839,14 +11359,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11878,14 +11392,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11917,14 +11425,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11956,14 +11458,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11995,14 +11491,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12031,17 +11521,11 @@
         <v>902244.7421604607</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12073,14 +11557,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12112,14 +11590,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12151,14 +11623,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12190,14 +11656,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12229,14 +11689,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12268,14 +11722,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12307,14 +11755,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12346,14 +11788,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12385,14 +11821,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12424,14 +11854,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12463,14 +11887,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12502,14 +11920,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12541,14 +11953,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12580,14 +11986,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12619,14 +12019,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12658,14 +12052,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12697,14 +12085,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12736,14 +12118,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12775,14 +12151,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12814,14 +12184,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12853,14 +12217,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12892,14 +12250,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12931,14 +12283,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12970,14 +12316,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13009,14 +12349,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13048,14 +12382,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13087,14 +12415,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13126,14 +12448,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13165,14 +12481,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13204,14 +12514,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13243,14 +12547,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13282,14 +12580,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13321,14 +12613,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13360,14 +12646,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13399,14 +12679,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13438,14 +12712,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13477,14 +12745,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13516,14 +12778,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13555,14 +12811,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13594,14 +12844,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13633,14 +12877,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13672,14 +12910,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13711,14 +12943,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13750,14 +12976,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13789,14 +13009,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13828,14 +13042,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13867,14 +13075,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13906,14 +13108,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13945,14 +13141,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13984,14 +13174,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14023,14 +13207,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14062,14 +13240,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14101,14 +13273,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14140,14 +13306,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14179,14 +13339,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14218,14 +13372,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14257,14 +13405,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14296,14 +13438,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14335,14 +13471,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14374,14 +13504,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14413,14 +13537,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14452,14 +13570,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14491,14 +13603,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14530,14 +13636,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14569,14 +13669,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14608,14 +13702,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14647,14 +13735,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14686,14 +13768,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14725,14 +13801,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14764,14 +13834,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14803,14 +13867,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14842,14 +13900,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14881,14 +13933,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14920,14 +13966,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14959,14 +13999,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14998,14 +14032,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15037,14 +14065,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15076,14 +14098,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15115,14 +14131,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15154,14 +14164,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15193,14 +14197,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15232,14 +14230,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15271,14 +14263,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15310,14 +14296,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15349,14 +14329,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15388,14 +14362,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15427,14 +14395,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15466,14 +14428,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15505,14 +14461,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15544,14 +14494,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15583,14 +14527,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15622,14 +14560,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15661,14 +14593,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15700,14 +14626,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15739,14 +14659,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15778,14 +14692,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15817,14 +14725,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15856,14 +14758,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15895,14 +14791,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15934,14 +14824,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15973,14 +14857,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16012,14 +14890,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16051,14 +14923,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16090,14 +14956,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16129,14 +14989,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16168,14 +15022,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16207,14 +15055,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16246,14 +15088,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16285,14 +15121,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16324,14 +15154,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16363,14 +15187,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16402,14 +15220,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16441,14 +15253,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16480,14 +15286,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16519,14 +15319,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16558,14 +15352,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16597,14 +15385,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16636,14 +15418,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16675,14 +15451,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16714,14 +15484,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16753,14 +15517,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16792,14 +15550,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16831,14 +15583,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16870,14 +15616,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16909,14 +15649,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16948,14 +15682,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16987,14 +15715,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17026,14 +15748,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17065,14 +15781,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17104,14 +15814,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17143,14 +15847,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17182,14 +15880,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17221,14 +15913,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17260,14 +15946,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17299,14 +15979,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17338,14 +16012,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17377,14 +16045,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17416,14 +16078,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17455,14 +16111,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17494,14 +16144,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17533,14 +16177,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17572,14 +16210,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17611,14 +16243,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17650,14 +16276,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17689,14 +16309,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17728,14 +16342,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17767,14 +16375,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17806,14 +16408,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17845,14 +16441,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17884,14 +16474,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17923,14 +16507,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17962,14 +16540,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18001,14 +16573,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18040,14 +16606,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18079,14 +16639,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18118,14 +16672,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18157,14 +16705,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18196,14 +16738,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18235,14 +16771,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18274,14 +16804,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18313,14 +16837,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18352,14 +16870,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18391,14 +16903,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18430,14 +16936,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18469,14 +16969,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18508,14 +17002,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18547,14 +17035,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18586,14 +17068,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18625,14 +17101,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18664,14 +17134,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18703,14 +17167,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18742,14 +17200,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18781,14 +17233,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18820,14 +17266,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18859,14 +17299,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18898,14 +17332,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18937,14 +17365,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18976,14 +17398,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19015,14 +17431,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19054,14 +17464,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19093,14 +17497,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19132,14 +17530,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19171,14 +17563,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19210,14 +17596,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19249,14 +17629,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19288,14 +17662,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19327,14 +17695,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19366,14 +17728,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19405,14 +17761,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19444,14 +17794,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19483,14 +17827,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19522,14 +17860,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19561,14 +17893,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19600,14 +17926,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19639,14 +17959,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19678,14 +17992,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19717,14 +18025,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19756,14 +18058,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19795,14 +18091,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19834,14 +18124,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19873,14 +18157,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19912,14 +18190,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19951,14 +18223,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19990,14 +18256,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -20029,14 +18289,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20068,14 +18322,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20107,14 +18355,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20146,14 +18388,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20185,14 +18421,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20224,14 +18454,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20263,14 +18487,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20302,14 +18520,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20341,14 +18553,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20380,14 +18586,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20419,14 +18619,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20458,14 +18652,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20497,14 +18685,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20536,14 +18718,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20575,14 +18751,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20614,14 +18784,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20653,14 +18817,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20692,14 +18850,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20731,14 +18883,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20770,14 +18916,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20809,14 +18949,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20845,23 +18979,15 @@
         <v>1492785.25385766</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
-        <v>1.054851375778269</v>
-      </c>
-      <c r="M522" t="n">
-        <v>1.00383064516129</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -20886,7 +19012,7 @@
         <v>1366693.96675766</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20919,7 +19045,7 @@
         <v>1419050.55905766</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20952,7 +19078,7 @@
         <v>1426193.51815766</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20985,7 +19111,7 @@
         <v>1365125.18015766</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -21018,7 +19144,7 @@
         <v>1496056.85994354</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -21051,7 +19177,7 @@
         <v>1522551.16994354</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -21084,7 +19210,7 @@
         <v>1575908.28894354</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -21117,7 +19243,7 @@
         <v>1662643.20802519</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -21150,7 +19276,7 @@
         <v>1626434.23322519</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -21183,7 +19309,7 @@
         <v>1771919.99902519</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -21216,7 +19342,7 @@
         <v>1725382.12452519</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -21249,7 +19375,7 @@
         <v>1791757.44150257</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -21282,7 +19408,7 @@
         <v>1773395.96610257</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -21315,7 +19441,7 @@
         <v>1777755.75000257</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -21348,7 +19474,7 @@
         <v>1921960.39720257</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -21381,7 +19507,7 @@
         <v>1961300.19477914</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -21414,7 +19540,7 @@
         <v>2019155.71120257</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -21447,7 +19573,7 @@
         <v>2034053.47060257</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -21480,7 +19606,7 @@
         <v>2034053.47060257</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -21513,7 +19639,7 @@
         <v>2030724.22850257</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21546,7 +19672,7 @@
         <v>1744620.97730257</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21579,7 +19705,7 @@
         <v>1746648.12960257</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21612,7 +19738,7 @@
         <v>1921185.12260257</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21645,7 +19771,7 @@
         <v>1879361.07840257</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -21678,7 +19804,7 @@
         <v>1854271.62670257</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21711,7 +19837,7 @@
         <v>1849446.83464982</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21744,7 +19870,7 @@
         <v>1403772.56854982</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21777,7 +19903,7 @@
         <v>1415794.32494982</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21810,7 +19936,7 @@
         <v>1397143.80834982</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21843,7 +19969,7 @@
         <v>1447802.38114982</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21876,7 +20002,7 @@
         <v>1442198.41544982</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21909,7 +20035,7 @@
         <v>1444739.17777575</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21942,7 +20068,7 @@
         <v>1444739.17777575</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21975,7 +20101,7 @@
         <v>1444739.17777575</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -22008,7 +20134,7 @@
         <v>1444739.17777575</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -22041,7 +20167,7 @@
         <v>1444793.55807575</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -22074,7 +20200,7 @@
         <v>1444793.55807575</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -22107,7 +20233,7 @@
         <v>1402013.46467575</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -22140,7 +20266,7 @@
         <v>1432246.32357575</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -22173,7 +20299,7 @@
         <v>1213457.52597575</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -22206,7 +20332,7 @@
         <v>1213457.52597575</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -22239,7 +20365,7 @@
         <v>1213457.52597575</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -22272,7 +20398,7 @@
         <v>1227362.95827575</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -22305,7 +20431,7 @@
         <v>1204345.79580899</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -22338,7 +20464,7 @@
         <v>1185234.16050899</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -22371,7 +20497,7 @@
         <v>1159073.74060899</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -22404,7 +20530,7 @@
         <v>1159073.74060899</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -22437,7 +20563,7 @@
         <v>1159073.74060899</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22470,7 +20596,7 @@
         <v>1158913.19260899</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22503,7 +20629,7 @@
         <v>1158913.19260899</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22536,7 +20662,7 @@
         <v>1167388.30790899</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22569,7 +20695,7 @@
         <v>1179024.45230899</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22602,7 +20728,7 @@
         <v>1179024.45230899</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22635,7 +20761,7 @@
         <v>1179024.45230899</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22668,7 +20794,7 @@
         <v>1179034.45230899</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22701,7 +20827,7 @@
         <v>1131270.33370899</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22734,7 +20860,7 @@
         <v>1203909.14990899</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22767,7 +20893,7 @@
         <v>1232983.29690899</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22800,7 +20926,7 @@
         <v>1232983.29690899</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22833,7 +20959,7 @@
         <v>1227907.20280899</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22866,7 +20992,7 @@
         <v>1227907.20280899</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22899,7 +21025,7 @@
         <v>1250375.16430899</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22932,7 +21058,7 @@
         <v>1250375.16430899</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22965,7 +21091,7 @@
         <v>1304226.54060899</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22998,7 +21124,7 @@
         <v>1304226.54060899</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -23031,7 +21157,7 @@
         <v>1304360.46300899</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -23064,7 +21190,7 @@
         <v>1304360.46300899</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -23097,7 +21223,7 @@
         <v>1304360.46300899</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -23130,7 +21256,7 @@
         <v>1305079.14930899</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -23163,7 +21289,7 @@
         <v>1305079.14930899</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -23295,7 +21421,7 @@
         <v>1252392.11330899</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -23328,7 +21454,7 @@
         <v>1172302.11330899</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -23361,7 +21487,7 @@
         <v>1172302.11330899</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -23394,7 +21520,7 @@
         <v>1292394.29610899</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23460,7 +21586,7 @@
         <v>1314481.40650899</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23493,7 +21619,7 @@
         <v>1315406.70260899</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23526,7 +21652,7 @@
         <v>1315419.34040899</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23559,7 +21685,7 @@
         <v>1309667.55800899</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23592,7 +21718,7 @@
         <v>1287694.00310899</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23625,7 +21751,7 @@
         <v>1002493.30380899</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23658,7 +21784,7 @@
         <v>1002493.30380899</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23856,7 +21982,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23889,7 +22015,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23922,7 +22048,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23955,7 +22081,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23988,7 +22114,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -24021,7 +22147,7 @@
         <v>929724.1846089897</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -24054,7 +22180,7 @@
         <v>935939.9868089898</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -24087,7 +22213,7 @@
         <v>910656.8230089898</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -24120,7 +22246,7 @@
         <v>942142.2474089898</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -24186,7 +22312,7 @@
         <v>942142.2474089898</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24219,7 +22345,7 @@
         <v>942142.2474089898</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24252,7 +22378,7 @@
         <v>945181.2474089898</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24285,7 +22411,7 @@
         <v>945181.2474089898</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24318,7 +22444,7 @@
         <v>943825.7429089898</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24351,7 +22477,7 @@
         <v>939221.1712089898</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24384,7 +22510,7 @@
         <v>862037.9967089898</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24417,7 +22543,7 @@
         <v>862076.0176089898</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24450,7 +22576,7 @@
         <v>862076.0176089898</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24483,7 +22609,7 @@
         <v>848976.0048089898</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24516,7 +22642,7 @@
         <v>856369.7584089899</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24549,7 +22675,7 @@
         <v>856369.7584089899</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24714,7 +22840,7 @@
         <v>746356.4362901699</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -25638,7 +23764,7 @@
         <v>1049346.16153162</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25803,7 +23929,7 @@
         <v>600066.5321675199</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25836,7 +23962,7 @@
         <v>601076.5321675199</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25902,7 +24028,7 @@
         <v>615619.8396675199</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25935,7 +24061,7 @@
         <v>609671.0671675199</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25968,7 +24094,7 @@
         <v>658729.1377675199</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26133,7 +24259,7 @@
         <v>609095.2400675199</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26166,7 +24292,7 @@
         <v>609095.2400675199</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26232,7 +24358,7 @@
         <v>591996.4104675199</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26243,6 +24369,6 @@
       <c r="M685" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ADA.xlsx
+++ b/BackTest/2020-01-22 BackTest ADA.xlsx
@@ -451,7 +451,7 @@
         <v>399909.1759073701</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,14 +517,10 @@
         <v>376307.3102073701</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="J4" t="n">
-        <v>49.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>332457.3102073701</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>340877.1790073701</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>49.42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,19 +616,11 @@
         <v>340877.1790073701</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>49.68</v>
-      </c>
-      <c r="J7" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,19 +649,11 @@
         <v>338911.7245073701</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>49.68</v>
-      </c>
-      <c r="J8" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,19 +682,11 @@
         <v>334741.7245073701</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>49.67</v>
-      </c>
-      <c r="J9" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -759,19 +715,11 @@
         <v>217528.1660073701</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>49.52</v>
-      </c>
-      <c r="J10" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>209528.1660073701</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>49.37</v>
-      </c>
-      <c r="J11" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -847,13 +787,9 @@
         <v>49.2</v>
       </c>
       <c r="J12" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>49.2</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,15 +818,17 @@
         <v>212863.2779073701</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>49.68</v>
+      </c>
       <c r="J13" t="n">
-        <v>49.61</v>
+        <v>49.2</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -921,15 +859,17 @@
         <v>266576.4571073701</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>49.61</v>
+      </c>
       <c r="J14" t="n">
-        <v>49.61</v>
+        <v>49.2</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -963,14 +903,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -999,17 +933,15 @@
         <v>253180.5846073701</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>49.75</v>
+      </c>
       <c r="J16" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>49.75</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1038,15 +970,17 @@
         <v>241630.5846073701</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>49.47</v>
+      </c>
       <c r="J17" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1077,11 +1011,13 @@
         <v>299481.9523073701</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>49.26</v>
+      </c>
       <c r="J18" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1116,11 +1052,13 @@
         <v>313528.6752073701</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>49.44</v>
+      </c>
       <c r="J19" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1155,11 +1093,13 @@
         <v>319866.6825073701</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>49.5</v>
+      </c>
       <c r="J20" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1194,11 +1134,13 @@
         <v>308760.46620737</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>49.59</v>
+      </c>
       <c r="J21" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1233,11 +1175,13 @@
         <v>308760.46620737</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>49.5</v>
+      </c>
       <c r="J22" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1278,7 +1222,7 @@
         <v>49.5</v>
       </c>
       <c r="J23" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1319,7 +1263,7 @@
         <v>49.58</v>
       </c>
       <c r="J24" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1360,7 +1304,7 @@
         <v>49.59</v>
       </c>
       <c r="J25" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1401,7 +1345,7 @@
         <v>49.58</v>
       </c>
       <c r="J26" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1442,7 +1386,7 @@
         <v>49.58</v>
       </c>
       <c r="J27" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1477,11 +1421,13 @@
         <v>332589.67830737</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>49.58</v>
+      </c>
       <c r="J28" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1516,11 +1462,13 @@
         <v>332609.8721684301</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>49.51</v>
+      </c>
       <c r="J29" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1555,13 +1503,11 @@
         <v>318610.8301684301</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>49.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1602,7 +1548,7 @@
         <v>49.41</v>
       </c>
       <c r="J31" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1637,13 +1583,11 @@
         <v>323540.9185684301</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>49.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1684,7 +1628,7 @@
         <v>49.52</v>
       </c>
       <c r="J33" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1719,11 +1663,13 @@
         <v>325922.17726843</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>49.74</v>
+      </c>
       <c r="J34" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1762,7 +1708,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1801,7 +1747,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1840,7 +1786,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1879,7 +1825,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1918,7 +1864,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1957,7 +1903,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1996,7 +1942,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2035,7 +1981,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2074,7 +2020,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2113,7 +2059,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2152,7 +2098,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2191,7 +2137,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2230,7 +2176,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2269,7 +2215,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2308,7 +2254,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2347,7 +2293,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2386,7 +2332,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2425,7 +2371,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2464,7 +2410,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2503,7 +2449,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2542,7 +2488,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2581,7 +2527,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2620,7 +2566,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2659,7 +2605,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2698,7 +2644,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2737,7 +2683,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2776,7 +2722,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2815,7 +2761,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2854,7 +2800,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2893,7 +2839,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2932,7 +2878,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2971,7 +2917,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3010,7 +2956,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3049,7 +2995,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3088,7 +3034,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3127,7 +3073,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3166,7 +3112,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3205,7 +3151,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3244,7 +3190,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3283,7 +3229,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3322,7 +3268,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3361,7 +3307,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3400,7 +3346,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3439,7 +3385,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3478,7 +3424,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3517,7 +3463,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3556,7 +3502,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3595,7 +3541,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3634,7 +3580,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3673,7 +3619,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3712,7 +3658,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3751,7 +3697,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3790,7 +3736,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3829,7 +3775,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3868,7 +3814,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3907,7 +3853,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3946,7 +3892,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3985,7 +3931,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4024,7 +3970,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4063,7 +4009,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4102,7 +4048,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4141,7 +4087,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4180,7 +4126,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4219,7 +4165,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4258,7 +4204,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4297,7 +4243,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4336,7 +4282,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4375,7 +4321,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4414,7 +4360,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4453,7 +4399,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4492,7 +4438,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4531,7 +4477,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4566,13 +4512,11 @@
         <v>73338.71596842984</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>49.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4607,13 +4551,11 @@
         <v>73338.71596842984</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>49.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4648,13 +4590,11 @@
         <v>95516.09546842983</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>49.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4689,13 +4629,11 @@
         <v>79340.17056842984</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>49.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4730,13 +4668,11 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>49.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4771,13 +4707,11 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>49.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4812,13 +4746,11 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>49.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4853,13 +4785,11 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>49.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4894,13 +4824,11 @@
         <v>16432.15336842983</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>49.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4935,13 +4863,11 @@
         <v>17775.57356842983</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>49.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4976,13 +4902,11 @@
         <v>-476406.8878315701</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>49.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5021,7 +4945,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5056,13 +4980,11 @@
         <v>-385206.5116315701</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>49.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5097,13 +5019,11 @@
         <v>-409134.68513157</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>49.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5142,7 +5062,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5181,7 +5101,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5220,7 +5140,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5259,7 +5179,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5298,7 +5218,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5337,7 +5257,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5376,7 +5296,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5415,7 +5335,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5454,7 +5374,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5493,7 +5413,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5532,7 +5452,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5567,13 +5487,11 @@
         <v>-467526.12681919</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>49.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5608,13 +5526,11 @@
         <v>-488538.1246191901</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>49.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5649,13 +5565,11 @@
         <v>-463430.4933066301</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>49.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5690,13 +5604,11 @@
         <v>-463430.4933066301</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>49.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5731,13 +5643,11 @@
         <v>-463846.8933066301</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>49.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5778,7 +5688,7 @@
         <v>49.55</v>
       </c>
       <c r="J137" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5819,7 +5729,7 @@
         <v>49.55</v>
       </c>
       <c r="J138" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5860,7 +5770,7 @@
         <v>49.55</v>
       </c>
       <c r="J139" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5901,7 +5811,7 @@
         <v>49.56</v>
       </c>
       <c r="J140" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5942,7 +5852,7 @@
         <v>49.75</v>
       </c>
       <c r="J141" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5983,7 +5893,7 @@
         <v>49.75</v>
       </c>
       <c r="J142" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6024,7 +5934,7 @@
         <v>49.92</v>
       </c>
       <c r="J143" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6059,11 +5969,13 @@
         <v>-338811.5860066301</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>50.07</v>
+      </c>
       <c r="J144" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6098,11 +6010,13 @@
         <v>-395525.4529066301</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>50.07</v>
+      </c>
       <c r="J145" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6137,11 +6051,13 @@
         <v>-452647.4788066301</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>50.06</v>
+      </c>
       <c r="J146" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6176,11 +6092,13 @@
         <v>-452647.4788066301</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>50.05</v>
+      </c>
       <c r="J147" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6215,11 +6133,13 @@
         <v>-452657.4809066301</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>50.05</v>
+      </c>
       <c r="J148" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6254,11 +6174,13 @@
         <v>-280127.4724066301</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>49.99</v>
+      </c>
       <c r="J149" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6297,7 +6219,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6332,11 +6254,13 @@
         <v>-279564.0419066301</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>50.05</v>
+      </c>
       <c r="J151" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6375,7 +6299,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6414,7 +6338,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6453,7 +6377,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6488,11 +6412,13 @@
         <v>-256694.4501066301</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>50.21</v>
+      </c>
       <c r="J155" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6527,11 +6453,13 @@
         <v>-246624.4022066301</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>50.19</v>
+      </c>
       <c r="J156" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6566,11 +6494,13 @@
         <v>-246614.4460066301</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>50.2</v>
+      </c>
       <c r="J157" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6605,11 +6535,13 @@
         <v>-246614.4460066301</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>50.22</v>
+      </c>
       <c r="J158" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6644,11 +6576,13 @@
         <v>-251750.3482066301</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>50.22</v>
+      </c>
       <c r="J159" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6683,11 +6617,13 @@
         <v>-230213.9942066301</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>50.02</v>
+      </c>
       <c r="J160" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6722,11 +6658,13 @@
         <v>-231830.6643066301</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>50.22</v>
+      </c>
       <c r="J161" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6761,11 +6699,13 @@
         <v>-196013.9033066301</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>50</v>
+      </c>
       <c r="J162" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6800,11 +6740,13 @@
         <v>-252893.6837066301</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>50.2</v>
+      </c>
       <c r="J163" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6839,11 +6781,13 @@
         <v>-252893.6837066301</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>50</v>
+      </c>
       <c r="J164" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6878,11 +6822,13 @@
         <v>-252893.6837066301</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>50</v>
+      </c>
       <c r="J165" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6923,7 +6869,7 @@
         <v>50</v>
       </c>
       <c r="J166" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6964,7 +6910,7 @@
         <v>49.9</v>
       </c>
       <c r="J167" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7005,7 +6951,7 @@
         <v>50</v>
       </c>
       <c r="J168" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7040,13 +6986,11 @@
         <v>-252454.6726066301</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7081,13 +7025,11 @@
         <v>-241530.1713066301</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7128,7 +7070,7 @@
         <v>50.22</v>
       </c>
       <c r="J171" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7169,7 +7111,7 @@
         <v>50.12</v>
       </c>
       <c r="J172" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7210,7 +7152,7 @@
         <v>50.24</v>
       </c>
       <c r="J173" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7251,7 +7193,7 @@
         <v>50.24</v>
       </c>
       <c r="J174" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7292,7 +7234,7 @@
         <v>50.24</v>
       </c>
       <c r="J175" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7333,7 +7275,7 @@
         <v>50.26</v>
       </c>
       <c r="J176" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7374,7 +7316,7 @@
         <v>50.27</v>
       </c>
       <c r="J177" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7415,7 +7357,7 @@
         <v>50.27</v>
       </c>
       <c r="J178" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7456,7 +7398,7 @@
         <v>50.13</v>
       </c>
       <c r="J179" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7497,7 +7439,7 @@
         <v>50.17</v>
       </c>
       <c r="J180" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7538,7 +7480,7 @@
         <v>50.17</v>
       </c>
       <c r="J181" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7579,7 +7521,7 @@
         <v>50.17</v>
       </c>
       <c r="J182" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7620,7 +7562,7 @@
         <v>50.17</v>
       </c>
       <c r="J183" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7661,7 +7603,7 @@
         <v>50.17</v>
       </c>
       <c r="J184" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7702,7 +7644,7 @@
         <v>50.17</v>
       </c>
       <c r="J185" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7743,7 +7685,7 @@
         <v>50.16</v>
       </c>
       <c r="J186" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7784,7 +7726,7 @@
         <v>50.37</v>
       </c>
       <c r="J187" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7825,7 +7767,7 @@
         <v>50.16</v>
       </c>
       <c r="J188" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7866,7 +7808,7 @@
         <v>50.35</v>
       </c>
       <c r="J189" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7907,7 +7849,7 @@
         <v>50.35</v>
       </c>
       <c r="J190" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7948,7 +7890,7 @@
         <v>50.32</v>
       </c>
       <c r="J191" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7989,7 +7931,7 @@
         <v>50.32</v>
       </c>
       <c r="J192" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -8030,7 +7972,7 @@
         <v>50.35</v>
       </c>
       <c r="J193" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -8071,7 +8013,7 @@
         <v>50.34</v>
       </c>
       <c r="J194" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8112,7 +8054,7 @@
         <v>50.4</v>
       </c>
       <c r="J195" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8147,13 +8089,11 @@
         <v>-347824.3088066301</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>50.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8192,7 +8132,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8231,7 +8171,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8270,7 +8210,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8309,7 +8249,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8348,7 +8288,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8387,7 +8327,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8426,7 +8366,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8465,7 +8405,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8504,7 +8444,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8543,7 +8483,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8578,19 +8518,19 @@
         <v>256406.1836933699</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>49.61</v>
+        <v>49.75</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.023623261439226</v>
+        <v>1</v>
       </c>
       <c r="M207" t="inlineStr"/>
     </row>
@@ -8617,11 +8557,17 @@
         <v>255104.4994933699</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8653,8 +8599,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8686,8 +8638,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8719,8 +8677,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8752,8 +8716,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8785,8 +8755,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8818,8 +8794,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8851,8 +8833,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8881,11 +8869,17 @@
         <v>348277.12190191</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8917,8 +8911,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8947,11 +8947,17 @@
         <v>317753.67730191</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8980,11 +8986,17 @@
         <v>272507.01430191</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9013,11 +9025,17 @@
         <v>280021.03640191</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9046,11 +9064,17 @@
         <v>279981.03640191</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9079,11 +9103,17 @@
         <v>324200.20150191</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9112,11 +9142,17 @@
         <v>399557.74439337</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9145,11 +9181,17 @@
         <v>400374.68619337</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9178,11 +9220,17 @@
         <v>396413.39318483</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9211,11 +9259,17 @@
         <v>397383.6047848299</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9244,11 +9298,17 @@
         <v>397383.6047848299</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9277,11 +9337,17 @@
         <v>405368.0775762899</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9310,11 +9376,17 @@
         <v>390788.5882762899</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9343,11 +9415,17 @@
         <v>390788.5882762899</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9376,11 +9454,17 @@
         <v>390800.5882762899</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9409,11 +9493,17 @@
         <v>383198.0487762899</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9442,11 +9532,17 @@
         <v>432064.4426979699</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9475,11 +9571,17 @@
         <v>420383.2974979699</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9508,11 +9610,17 @@
         <v>442744.5376979699</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9541,11 +9649,17 @@
         <v>677499.8810979698</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9574,11 +9688,17 @@
         <v>677499.8810979698</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9607,11 +9727,17 @@
         <v>853236.4253195998</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9640,11 +9766,17 @@
         <v>853236.4253195998</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9673,11 +9805,17 @@
         <v>904695.5848195998</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9706,11 +9844,17 @@
         <v>904695.5848195998</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9739,11 +9883,17 @@
         <v>893337.8290970498</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9772,11 +9922,17 @@
         <v>1001380.32249705</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9805,11 +9961,17 @@
         <v>1115376.84959705</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9838,11 +10000,17 @@
         <v>1131451.84969705</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9871,11 +10039,17 @@
         <v>1060689.72179705</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9904,11 +10078,17 @@
         <v>1068022.87369705</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9937,11 +10117,17 @@
         <v>1107439.89539705</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9970,11 +10156,17 @@
         <v>1234827.01385276</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10003,11 +10195,17 @@
         <v>1234827.01385276</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10036,11 +10234,17 @@
         <v>1261025.30139705</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10069,11 +10273,17 @@
         <v>1269441.01039705</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10102,11 +10312,17 @@
         <v>1449699.09531187</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10138,8 +10354,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10171,8 +10393,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10204,8 +10432,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10237,8 +10471,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10270,8 +10510,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10303,8 +10549,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10336,8 +10588,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10369,8 +10627,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10402,8 +10666,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10435,8 +10705,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10468,8 +10744,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10501,8 +10783,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10534,8 +10822,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10567,8 +10861,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10597,13 +10897,19 @@
         <v>2023376.6439623</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L268" t="n">
-        <v>1</v>
+        <v>1.032587939698492</v>
       </c>
       <c r="M268" t="inlineStr"/>
     </row>
@@ -10630,7 +10936,7 @@
         <v>2031302.4287623</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -11521,7 +11827,7 @@
         <v>902244.7421604607</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -19276,7 +19582,7 @@
         <v>1626434.23322519</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19309,7 +19615,7 @@
         <v>1771919.99902519</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19342,7 +19648,7 @@
         <v>1725382.12452519</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19375,7 +19681,7 @@
         <v>1791757.44150257</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19408,7 +19714,7 @@
         <v>1773395.96610257</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19441,7 +19747,7 @@
         <v>1777755.75000257</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19474,7 +19780,7 @@
         <v>1921960.39720257</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19507,7 +19813,7 @@
         <v>1961300.19477914</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19540,7 +19846,7 @@
         <v>2019155.71120257</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19573,7 +19879,7 @@
         <v>2034053.47060257</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19606,7 +19912,7 @@
         <v>2034053.47060257</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19639,7 +19945,7 @@
         <v>2030724.22850257</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19672,7 +19978,7 @@
         <v>1744620.97730257</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19705,7 +20011,7 @@
         <v>1746648.12960257</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19738,7 +20044,7 @@
         <v>1921185.12260257</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19771,7 +20077,7 @@
         <v>1879361.07840257</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19804,7 +20110,7 @@
         <v>1854271.62670257</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19837,7 +20143,7 @@
         <v>1849446.83464982</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
